--- a/data/trans_orig/Q5414-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48986725-8B56-41E3-9F08-7E5BB762F363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BB6A3C9-A923-4FBC-90CC-3E7D6541FD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F3BACB2-488D-46E0-A5E0-27FE6900DBD4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19C4F879-7E42-4122-AD67-9DF700163D35}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="126">
   <si>
     <t>Población según si es capaz de comer solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,3%</t>
   </si>
   <si>
     <t>0,64%</t>
@@ -119,307 +119,304 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,87%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>0,99%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>98,81%</t>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>96,53%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>97,85%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
 </sst>
 </file>
@@ -831,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED541DC2-7405-404C-90EF-676118BA02A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A023532-FF0D-45A0-B529-885117F8B091}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2287,7 +2284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C810670-1D27-4306-AE40-5E3C2C63EDC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0FFE4D-14B9-4BF8-B81B-1E3E264FEFB9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3321,13 +3318,13 @@
         <v>6138</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -3336,13 +3333,13 @@
         <v>13153</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -3351,13 +3348,13 @@
         <v>19292</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3369,13 @@
         <v>13860</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -3387,13 +3384,13 @@
         <v>21620</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -3402,13 +3399,13 @@
         <v>35480</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3420,13 @@
         <v>539639</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H26" s="7">
         <v>663</v>
@@ -3438,13 +3435,13 @@
         <v>708201</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>1150</v>
@@ -3453,13 +3450,13 @@
         <v>1247840</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3524,13 @@
         <v>6138</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -3542,13 +3539,13 @@
         <v>13153</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -3557,13 +3554,13 @@
         <v>19292</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3575,13 @@
         <v>13860</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -3593,13 +3590,13 @@
         <v>21620</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -3608,13 +3605,13 @@
         <v>35480</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3626,13 @@
         <v>539639</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>663</v>
@@ -3644,13 +3641,13 @@
         <v>708201</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M30" s="7">
         <v>1150</v>
@@ -3659,13 +3656,13 @@
         <v>1247840</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,7 +3740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4EAE46-265F-4E43-9D19-45725AEFDA79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC2687A-9774-4CB6-92E8-BA10A65E650E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3760,7 +3757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4777,13 +4774,13 @@
         <v>912</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -4792,13 +4789,13 @@
         <v>9353</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -4807,13 +4804,13 @@
         <v>10265</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4825,13 @@
         <v>8581</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -4843,13 +4840,13 @@
         <v>21600</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -4858,13 +4855,13 @@
         <v>30181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4876,13 @@
         <v>581835</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H26" s="7">
         <v>631</v>
@@ -4894,13 +4891,13 @@
         <v>746978</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M26" s="7">
         <v>1247</v>
@@ -4909,13 +4906,13 @@
         <v>1328813</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4980,13 @@
         <v>912</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -4998,13 +4995,13 @@
         <v>9353</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -5013,13 +5010,13 @@
         <v>10265</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5031,13 @@
         <v>8581</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -5049,13 +5046,13 @@
         <v>21600</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -5064,13 +5061,13 @@
         <v>30181</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5082,13 @@
         <v>581835</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H30" s="7">
         <v>631</v>
@@ -5100,13 +5097,13 @@
         <v>746978</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M30" s="7">
         <v>1247</v>
@@ -5115,13 +5112,13 @@
         <v>1328813</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,7 +5196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E949DF-0A4E-4257-BE9E-8232835C0874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43B8443-1F32-4548-838C-81B9E31583DD}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5216,7 +5213,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6233,13 +6230,13 @@
         <v>2941</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -6248,13 +6245,13 @@
         <v>8273</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -6263,13 +6260,13 @@
         <v>11214</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,13 +6281,13 @@
         <v>10005</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -6299,13 +6296,13 @@
         <v>27344</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -6314,13 +6311,13 @@
         <v>37348</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,13 +6332,13 @@
         <v>683976</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>1643</v>
@@ -6350,13 +6347,13 @@
         <v>990585</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>2648</v>
@@ -6365,13 +6362,13 @@
         <v>1674562</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,13 +6436,13 @@
         <v>2941</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -6454,13 +6451,13 @@
         <v>8273</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -6469,13 +6466,13 @@
         <v>11214</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,13 +6487,13 @@
         <v>10005</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -6505,13 +6502,13 @@
         <v>27344</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M29" s="7">
         <v>63</v>
@@ -6520,13 +6517,13 @@
         <v>37348</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,13 +6538,13 @@
         <v>683976</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H30" s="7">
         <v>1643</v>
@@ -6556,13 +6553,13 @@
         <v>990585</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>2648</v>
@@ -6571,13 +6568,13 @@
         <v>1674562</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5414-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BB6A3C9-A923-4FBC-90CC-3E7D6541FD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD525764-7844-4C8B-B92C-FA96F4E0B541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19C4F879-7E42-4122-AD67-9DF700163D35}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09572E38-3D38-40CA-B4D4-FEF4F81665D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="123">
   <si>
     <t>Población según si es capaz de comer solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,3%</t>
+    <t>1,55%</t>
   </si>
   <si>
     <t>0,64%</t>
@@ -119,97 +119,100 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,2%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,19%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>2,48%</t>
@@ -218,67 +221,67 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>4,36%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>96,43%</t>
   </si>
   <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2015 (Tasa respuesta: 19,52%)</t>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
+    <t>1,01%</t>
+  </si>
+  <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>0,51%</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -290,34 +293,28 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>97,16%</t>
+    <t>97,24%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -326,19 +323,19 @@
     <t>96,02%</t>
   </si>
   <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
@@ -347,9 +344,6 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
     <t>0,81%</t>
   </si>
   <si>
@@ -357,9 +351,6 @@
   </si>
   <si>
     <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -828,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A023532-FF0D-45A0-B529-885117F8B091}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428ACDF7-7AE7-405D-ABA6-BB80ED28D069}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2284,7 +2275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0FFE4D-14B9-4BF8-B81B-1E3E264FEFB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0E79A7-4FF7-42B9-9423-648F302EEFBA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3318,13 +3309,13 @@
         <v>6138</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -3333,13 +3324,13 @@
         <v>13153</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -3348,13 +3339,13 @@
         <v>19292</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3360,13 @@
         <v>13860</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -3384,13 +3375,13 @@
         <v>21620</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -3399,13 +3390,13 @@
         <v>35480</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3411,13 @@
         <v>539639</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H26" s="7">
         <v>663</v>
@@ -3435,13 +3426,13 @@
         <v>708201</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>1150</v>
@@ -3450,13 +3441,13 @@
         <v>1247840</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3515,13 @@
         <v>6138</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -3539,13 +3530,13 @@
         <v>13153</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -3554,13 +3545,13 @@
         <v>19292</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3566,13 @@
         <v>13860</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -3590,13 +3581,13 @@
         <v>21620</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -3605,13 +3596,13 @@
         <v>35480</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3617,13 @@
         <v>539639</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>663</v>
@@ -3641,13 +3632,13 @@
         <v>708201</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M30" s="7">
         <v>1150</v>
@@ -3656,13 +3647,13 @@
         <v>1247840</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,7 +3731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC2687A-9774-4CB6-92E8-BA10A65E650E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA322F14-E073-4B82-9C2D-F143DDD0835C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3757,7 +3748,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4774,13 +4765,13 @@
         <v>912</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -4789,13 +4780,13 @@
         <v>9353</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -4804,13 +4795,13 @@
         <v>10265</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4816,13 @@
         <v>8581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -4840,13 +4831,13 @@
         <v>21600</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -4855,13 +4846,13 @@
         <v>30181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4867,13 @@
         <v>581835</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H26" s="7">
         <v>631</v>
@@ -4891,13 +4882,13 @@
         <v>746978</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>1247</v>
@@ -4906,13 +4897,13 @@
         <v>1328813</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +4971,13 @@
         <v>912</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -4995,13 +4986,13 @@
         <v>9353</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -5010,13 +5001,13 @@
         <v>10265</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5022,13 @@
         <v>8581</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -5046,13 +5037,13 @@
         <v>21600</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -5061,13 +5052,13 @@
         <v>30181</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5073,13 @@
         <v>581835</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H30" s="7">
         <v>631</v>
@@ -5097,13 +5088,13 @@
         <v>746978</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M30" s="7">
         <v>1247</v>
@@ -5112,13 +5103,13 @@
         <v>1328813</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,7 +5187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43B8443-1F32-4548-838C-81B9E31583DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F34D2C-5F0F-4A0B-91B8-408D7A4E213B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5213,7 +5204,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6230,13 +6221,13 @@
         <v>2941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -6245,13 +6236,13 @@
         <v>8273</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -6260,13 +6251,13 @@
         <v>11214</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6272,13 @@
         <v>10005</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -6296,13 +6287,13 @@
         <v>27344</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -6311,13 +6302,13 @@
         <v>37348</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6323,13 @@
         <v>683976</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7">
         <v>1643</v>
@@ -6347,13 +6338,13 @@
         <v>990585</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M26" s="7">
         <v>2648</v>
@@ -6362,13 +6353,13 @@
         <v>1674562</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6427,13 @@
         <v>2941</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -6451,13 +6442,13 @@
         <v>8273</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -6466,13 +6457,13 @@
         <v>11214</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6478,13 @@
         <v>10005</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -6502,13 +6493,13 @@
         <v>27344</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M29" s="7">
         <v>63</v>
@@ -6517,13 +6508,13 @@
         <v>37348</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6529,13 @@
         <v>683976</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H30" s="7">
         <v>1643</v>
@@ -6553,13 +6544,13 @@
         <v>990585</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M30" s="7">
         <v>2648</v>
@@ -6568,13 +6559,13 @@
         <v>1674562</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5414-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD525764-7844-4C8B-B92C-FA96F4E0B541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8263F1D-4782-4723-9FF9-41BBD24FC006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09572E38-3D38-40CA-B4D4-FEF4F81665D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A790656C-0EAB-4783-9F58-4931FD041731}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="127">
   <si>
     <t>Población según si es capaz de comer solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,55%</t>
+    <t>1,29%</t>
   </si>
   <si>
     <t>0,64%</t>
@@ -119,295 +119,307 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
+    <t>2,41%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>98,81%</t>
   </si>
   <si>
     <t>96,53%</t>
   </si>
   <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>97,85%</t>
   </si>
 </sst>
 </file>
@@ -819,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428ACDF7-7AE7-405D-ABA6-BB80ED28D069}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5A4E6B-DE13-4F2A-AD43-00B578B916B6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2275,7 +2287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0E79A7-4FF7-42B9-9423-648F302EEFBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C8EC40-4291-4E65-B8A4-400B63C36AD3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3731,7 +3743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA322F14-E073-4B82-9C2D-F143DDD0835C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D607EBD2-331F-4278-9987-19E3BAE2DCA8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4783,10 +4795,10 @@
         <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -4801,7 +4813,7 @@
         <v>82</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4828,13 @@
         <v>8581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -4831,13 +4843,13 @@
         <v>21600</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -4849,10 +4861,10 @@
         <v>51</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4879,13 @@
         <v>581835</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H26" s="7">
         <v>631</v>
@@ -4882,13 +4894,13 @@
         <v>746978</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M26" s="7">
         <v>1247</v>
@@ -4897,13 +4909,13 @@
         <v>1328813</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,10 +5001,10 @@
         <v>79</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -5007,7 +5019,7 @@
         <v>82</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5034,13 @@
         <v>8581</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -5037,13 +5049,13 @@
         <v>21600</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -5055,10 +5067,10 @@
         <v>51</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5085,13 @@
         <v>581835</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H30" s="7">
         <v>631</v>
@@ -5088,13 +5100,13 @@
         <v>746978</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M30" s="7">
         <v>1247</v>
@@ -5103,13 +5115,13 @@
         <v>1328813</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,7 +5199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F34D2C-5F0F-4A0B-91B8-408D7A4E213B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500A43EA-3849-4F18-91FC-5A50C92FEDD8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5204,7 +5216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6221,13 +6233,13 @@
         <v>2941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -6236,13 +6248,13 @@
         <v>8273</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -6251,13 +6263,13 @@
         <v>11214</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6272,13 +6284,13 @@
         <v>10005</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -6287,13 +6299,13 @@
         <v>27344</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -6302,13 +6314,13 @@
         <v>37348</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,13 +6335,13 @@
         <v>683976</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>1643</v>
@@ -6338,13 +6350,13 @@
         <v>990585</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>2648</v>
@@ -6353,13 +6365,13 @@
         <v>1674562</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6439,13 @@
         <v>2941</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -6442,13 +6454,13 @@
         <v>8273</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -6457,13 +6469,13 @@
         <v>11214</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,13 +6490,13 @@
         <v>10005</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -6493,13 +6505,13 @@
         <v>27344</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>63</v>
@@ -6508,13 +6520,13 @@
         <v>37348</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6541,13 @@
         <v>683976</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H30" s="7">
         <v>1643</v>
@@ -6544,13 +6556,13 @@
         <v>990585</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>2648</v>
@@ -6559,13 +6571,13 @@
         <v>1674562</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5414-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8263F1D-4782-4723-9FF9-41BBD24FC006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E3FB8EF-0E79-479A-AC91-74DBDBB63D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A790656C-0EAB-4783-9F58-4931FD041731}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BC9BE5FD-9DF1-457D-9E6E-2DE91689F6D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="288">
   <si>
     <t>Población según si es capaz de comer solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No puede</t>
@@ -83,33 +83,189 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
     <t>0,17%</t>
   </si>
   <si>
@@ -146,9 +302,6 @@
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
     <t>2,19%</t>
   </si>
   <si>
@@ -179,15 +332,156 @@
     <t>98,75%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
@@ -230,18 +524,9 @@
     <t>1,74%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
     <t>96,43%</t>
   </si>
   <si>
@@ -272,9 +557,120 @@
     <t>Población según si es capaz de comer solo en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
     <t>0,15%</t>
   </si>
   <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
@@ -296,9 +692,6 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
     <t>2,65%</t>
   </si>
   <si>
@@ -311,9 +704,6 @@
     <t>4,33%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
     <t>3,15%</t>
   </si>
   <si>
@@ -341,85 +731,178 @@
     <t>95,97%</t>
   </si>
   <si>
-    <t>97,94%</t>
-  </si>
-  <si>
     <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
   </si>
   <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
     <t>0,42%</t>
   </si>
   <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
 </sst>
 </file>
@@ -831,8 +1314,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5A4E6B-DE13-4F2A-AD43-00B578B916B6}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712FB7E7-42E1-4040-88B4-AFFF9CB92E35}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1874,34 +2357,34 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>4363</v>
+        <v>897</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2721</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="7">
-        <v>7</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6188</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,49 +2393,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>8094</v>
+        <v>2679</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3003</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="7">
-        <v>8</v>
-      </c>
-      <c r="I25" s="7">
-        <v>8696</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>6</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5682</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="7">
-        <v>17</v>
-      </c>
-      <c r="N25" s="7">
-        <v>16790</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,49 +2444,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>512</v>
+        <v>298</v>
       </c>
       <c r="D26" s="7">
-        <v>492548</v>
+        <v>288079</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>367</v>
+      </c>
+      <c r="I26" s="7">
+        <v>339035</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="7">
-        <v>648</v>
-      </c>
-      <c r="I26" s="7">
-        <v>663783</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>665</v>
+      </c>
+      <c r="N26" s="7">
+        <v>627114</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="7">
-        <v>1160</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1156331</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,102 +2495,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I28" s="7">
-        <v>4363</v>
+        <v>3467</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M28" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N28" s="7">
-        <v>6188</v>
+        <v>3467</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,49 +2599,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>8094</v>
+        <v>5414</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H29" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>8696</v>
+        <v>5694</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="M29" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N29" s="7">
-        <v>16790</v>
+        <v>11108</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,49 +2650,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>512</v>
+        <v>214</v>
       </c>
       <c r="D30" s="7">
-        <v>492548</v>
+        <v>204469</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="H30" s="7">
-        <v>648</v>
+        <v>281</v>
       </c>
       <c r="I30" s="7">
-        <v>663783</v>
+        <v>324748</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="M30" s="7">
-        <v>1160</v>
+        <v>495</v>
       </c>
       <c r="N30" s="7">
-        <v>1156331</v>
+        <v>529217</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,63 +2701,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1824</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5</v>
+      </c>
+      <c r="I32" s="7">
+        <v>4363</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6188</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>9</v>
+      </c>
+      <c r="D33" s="7">
+        <v>8094</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="7">
+        <v>8</v>
+      </c>
+      <c r="I33" s="7">
+        <v>8696</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M33" s="7">
+        <v>17</v>
+      </c>
+      <c r="N33" s="7">
+        <v>16790</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>512</v>
+      </c>
+      <c r="D34" s="7">
+        <v>492548</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="7">
+        <v>648</v>
+      </c>
+      <c r="I34" s="7">
+        <v>663783</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1160</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1156331</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>523</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>502466</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="7">
         <v>661</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>676842</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="7">
         <v>1184</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1179308</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2287,8 +2977,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C8EC40-4291-4E65-B8A4-400B63C36AD3}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F81FCD-15DD-4FA2-8505-4BCE4A9EF79E}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2304,7 +2994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3315,49 +4005,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>6138</v>
+        <v>2988</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="H24" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>13153</v>
+        <v>1945</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="M24" s="7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N24" s="7">
-        <v>19292</v>
+        <v>4932</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,49 +4056,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>13860</v>
+        <v>3159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="H25" s="7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>21620</v>
+        <v>1941</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="M25" s="7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>35480</v>
+        <v>5099</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,49 +4107,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>487</v>
+        <v>276</v>
       </c>
       <c r="D26" s="7">
-        <v>539639</v>
+        <v>303640</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="H26" s="7">
-        <v>663</v>
+        <v>340</v>
       </c>
       <c r="I26" s="7">
-        <v>708201</v>
+        <v>350111</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="M26" s="7">
-        <v>1150</v>
+        <v>616</v>
       </c>
       <c r="N26" s="7">
-        <v>1247840</v>
+        <v>653751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,102 +4158,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>6138</v>
+        <v>3151</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="H28" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I28" s="7">
-        <v>13153</v>
+        <v>11209</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="M28" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N28" s="7">
-        <v>19292</v>
+        <v>14360</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,49 +4262,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D29" s="7">
-        <v>13860</v>
+        <v>10701</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="H29" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I29" s="7">
-        <v>21620</v>
+        <v>19680</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="M29" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N29" s="7">
-        <v>35480</v>
+        <v>30381</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,49 +4313,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>487</v>
+        <v>211</v>
       </c>
       <c r="D30" s="7">
-        <v>539639</v>
+        <v>235999</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="H30" s="7">
-        <v>663</v>
+        <v>323</v>
       </c>
       <c r="I30" s="7">
-        <v>708201</v>
+        <v>358091</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="M30" s="7">
-        <v>1150</v>
+        <v>534</v>
       </c>
       <c r="N30" s="7">
-        <v>1247840</v>
+        <v>594090</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,63 +4364,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>6138</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="7">
+        <v>12</v>
+      </c>
+      <c r="I32" s="7">
+        <v>13153</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M32" s="7">
+        <v>18</v>
+      </c>
+      <c r="N32" s="7">
+        <v>19292</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>11</v>
+      </c>
+      <c r="D33" s="7">
+        <v>13860</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="7">
+        <v>19</v>
+      </c>
+      <c r="I33" s="7">
+        <v>21620</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M33" s="7">
+        <v>30</v>
+      </c>
+      <c r="N33" s="7">
+        <v>35480</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>487</v>
+      </c>
+      <c r="D34" s="7">
+        <v>539639</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" s="7">
+        <v>663</v>
+      </c>
+      <c r="I34" s="7">
+        <v>708201</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1150</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1247840</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>504</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>559637</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="7">
         <v>694</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>742975</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="7">
         <v>1198</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1302612</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3743,8 +4640,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D607EBD2-331F-4278-9987-19E3BAE2DCA8}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119987BA-4B3E-426F-B757-02CD95E44D48}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3760,7 +4657,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4771,49 +5668,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="7">
-        <v>912</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="I24" s="7">
+        <v>1037</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="7">
-        <v>7</v>
-      </c>
-      <c r="I24" s="7">
-        <v>9353</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>10265</v>
+        <v>1037</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,49 +5719,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>8581</v>
+        <v>1972</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>21600</v>
+        <v>3679</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>30181</v>
+        <v>5651</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,49 +5770,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>616</v>
+        <v>323</v>
       </c>
       <c r="D26" s="7">
-        <v>581835</v>
+        <v>332358</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
-        <v>631</v>
+        <v>350</v>
       </c>
       <c r="I26" s="7">
-        <v>746978</v>
+        <v>373045</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
-        <v>1247</v>
+        <v>673</v>
       </c>
       <c r="N26" s="7">
-        <v>1328813</v>
+        <v>705403</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,54 +5821,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4983,43 +5880,43 @@
         <v>912</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="H28" s="7">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7">
+        <v>8315</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M28" s="7">
         <v>7</v>
       </c>
-      <c r="I28" s="7">
-        <v>9353</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M28" s="7">
-        <v>8</v>
-      </c>
       <c r="N28" s="7">
-        <v>10265</v>
+        <v>9227</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,49 +5925,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D29" s="7">
-        <v>8581</v>
+        <v>6609</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="7">
+        <v>14</v>
+      </c>
+      <c r="I29" s="7">
+        <v>17921</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="7">
-        <v>17</v>
-      </c>
-      <c r="I29" s="7">
-        <v>21600</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N29" s="7">
-        <v>30181</v>
+        <v>24530</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,49 +5976,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>616</v>
+        <v>293</v>
       </c>
       <c r="D30" s="7">
-        <v>581835</v>
+        <v>249477</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
-        <v>631</v>
+        <v>281</v>
       </c>
       <c r="I30" s="7">
-        <v>746978</v>
+        <v>373933</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
-        <v>1247</v>
+        <v>574</v>
       </c>
       <c r="N30" s="7">
-        <v>1328813</v>
+        <v>623410</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,63 +6027,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>912</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="7">
+        <v>7</v>
+      </c>
+      <c r="I32" s="7">
+        <v>9353</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M32" s="7">
+        <v>8</v>
+      </c>
+      <c r="N32" s="7">
+        <v>10265</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>10</v>
+      </c>
+      <c r="D33" s="7">
+        <v>8581</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H33" s="7">
+        <v>17</v>
+      </c>
+      <c r="I33" s="7">
+        <v>21600</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M33" s="7">
+        <v>27</v>
+      </c>
+      <c r="N33" s="7">
+        <v>30181</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>616</v>
+      </c>
+      <c r="D34" s="7">
+        <v>581835</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="7">
+        <v>631</v>
+      </c>
+      <c r="I34" s="7">
+        <v>746978</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1247</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1328813</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>627</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>591328</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="7">
         <v>655</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>777931</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="7">
         <v>1282</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1369259</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5199,8 +6303,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500A43EA-3849-4F18-91FC-5A50C92FEDD8}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C940929-B76B-4D21-BC04-EBB9CE6944E2}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5216,7 +6320,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6227,49 +7331,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>2941</v>
+        <v>632</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="H24" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>8273</v>
+        <v>1543</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="M24" s="7">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>11214</v>
+        <v>2175</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>108</v>
+        <v>233</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,49 +7382,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>10005</v>
+        <v>1529</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="H25" s="7">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>27344</v>
+        <v>2543</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="M25" s="7">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>37348</v>
+        <v>4072</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,49 +7433,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>1005</v>
+        <v>567</v>
       </c>
       <c r="D26" s="7">
-        <v>683976</v>
+        <v>366004</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="H26" s="7">
-        <v>1643</v>
+        <v>818</v>
       </c>
       <c r="I26" s="7">
-        <v>990585</v>
+        <v>603872</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="M26" s="7">
-        <v>2648</v>
+        <v>1385</v>
       </c>
       <c r="N26" s="7">
-        <v>1674562</v>
+        <v>969877</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,102 +7484,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>696921</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1026202</v>
+        <v>607958</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>2734</v>
+        <v>1396</v>
       </c>
       <c r="N27" s="7">
-        <v>1723124</v>
+        <v>976124</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>2941</v>
+        <v>2147</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="H28" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I28" s="7">
-        <v>8273</v>
+        <v>6033</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="M28" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N28" s="7">
-        <v>11214</v>
+        <v>8180</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,49 +7588,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" s="7">
-        <v>10005</v>
+        <v>7686</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
       <c r="H29" s="7">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I29" s="7">
-        <v>27344</v>
+        <v>21027</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>257</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="M29" s="7">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N29" s="7">
-        <v>37348</v>
+        <v>28713</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,49 +7639,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>1005</v>
+        <v>438</v>
       </c>
       <c r="D30" s="7">
-        <v>683976</v>
+        <v>272180</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>264</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="H30" s="7">
-        <v>1643</v>
+        <v>825</v>
       </c>
       <c r="I30" s="7">
-        <v>990585</v>
+        <v>398771</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="M30" s="7">
-        <v>2648</v>
+        <v>1263</v>
       </c>
       <c r="N30" s="7">
-        <v>1674562</v>
+        <v>670951</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>125</v>
+        <v>269</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>67</v>
+        <v>270</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,63 +7690,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>457</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282013</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="7">
+        <v>881</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707844</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2780</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H32" s="7">
+        <v>17</v>
+      </c>
+      <c r="I32" s="7">
+        <v>7576</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M32" s="7">
+        <v>23</v>
+      </c>
+      <c r="N32" s="7">
+        <v>10356</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>16</v>
+      </c>
+      <c r="D33" s="7">
+        <v>9215</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H33" s="7">
+        <v>47</v>
+      </c>
+      <c r="I33" s="7">
+        <v>23569</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M33" s="7">
+        <v>63</v>
+      </c>
+      <c r="N33" s="7">
+        <v>32785</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1005</v>
+      </c>
+      <c r="D34" s="7">
+        <v>638183</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1643</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1002644</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2648</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1640828</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1027</v>
       </c>
-      <c r="D31" s="7">
-        <v>696921</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>650178</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="7">
         <v>1707</v>
       </c>
-      <c r="I31" s="7">
-        <v>1026202</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>1033789</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="7">
         <v>2734</v>
       </c>
-      <c r="N31" s="7">
-        <v>1723124</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>1683968</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
